--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>316105.7534035779</v>
+        <v>313584.2488130587</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>200.7384647314135</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>315.3426039722178</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>289.9986132750793</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>249.0719396942776</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>22.66160460810708</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>29.19679948535887</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>320.0601402632469</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>237.4749212830804</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>211.001189516529</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>7.26765656529917</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>279.3751023006566</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>93.52676208877504</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,7 +1300,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>110.7115619691727</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>5.417911179179435</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>171.5573199799915</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892423</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819411</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936156</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>11.79076481679268</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503972</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.54416032354717</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456766</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>205.9682521389955</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>11.76284745948112</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3193,16 +3193,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>40.53421095546921</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>21.63824106824953</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1981.292934199478</v>
+        <v>1084.81971816026</v>
       </c>
       <c r="C2" t="n">
-        <v>1981.292934199478</v>
+        <v>1084.81971816026</v>
       </c>
       <c r="D2" t="n">
-        <v>1623.027235592727</v>
+        <v>766.2918353600404</v>
       </c>
       <c r="E2" t="n">
-        <v>1237.238982994483</v>
+        <v>766.2918353600404</v>
       </c>
       <c r="F2" t="n">
-        <v>826.2530782048757</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G2" t="n">
-        <v>410.5483279291645</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926625</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190805</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>2184.059060190805</v>
+        <v>1848.424808397152</v>
       </c>
       <c r="W2" t="n">
-        <v>2184.059060190805</v>
+        <v>1848.424808397152</v>
       </c>
       <c r="X2" t="n">
-        <v>2184.059060190805</v>
+        <v>1474.959050136072</v>
       </c>
       <c r="Y2" t="n">
-        <v>2184.059060190805</v>
+        <v>1084.81971816026</v>
       </c>
     </row>
     <row r="3">
@@ -4398,37 +4398,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>821.9680821844937</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249.6746861477877</v>
+        <v>224.2539356854975</v>
       </c>
       <c r="C4" t="n">
-        <v>80.73850321988076</v>
+        <v>224.2539356854975</v>
       </c>
       <c r="D4" t="n">
-        <v>80.73850321988076</v>
+        <v>74.13729627316178</v>
       </c>
       <c r="E4" t="n">
-        <v>80.73850321988076</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>80.73850321988076</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>80.73850321988076</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>80.73850321988076</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.862713590079</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1021.765895288652</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>767.0814070827656</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W4" t="n">
-        <v>477.664237045805</v>
+        <v>673.036065727045</v>
       </c>
       <c r="X4" t="n">
-        <v>249.6746861477877</v>
+        <v>445.0465148290276</v>
       </c>
       <c r="Y4" t="n">
-        <v>249.6746861477877</v>
+        <v>224.2539356854975</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1217.950988797912</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="C5" t="n">
-        <v>1217.950988797912</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="D5" t="n">
-        <v>859.6852901911619</v>
+        <v>756.6369969428281</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>756.6369969428281</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437142</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800308</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800308</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362815</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926624</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926624</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190804</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>1944.185402329106</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W5" t="n">
-        <v>1591.416747058992</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X5" t="n">
-        <v>1217.950988797912</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y5" t="n">
-        <v>1217.950988797912</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.427330237016</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>937.5665200750353</v>
+        <v>350.1023241168326</v>
       </c>
       <c r="C7" t="n">
-        <v>768.6303371471284</v>
+        <v>350.1023241168326</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312195</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234358</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>1150.699034738196</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="V7" t="n">
-        <v>1150.699034738196</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="W7" t="n">
-        <v>937.5665200750353</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="X7" t="n">
-        <v>937.5665200750353</v>
+        <v>539.0918561847483</v>
       </c>
       <c r="Y7" t="n">
-        <v>937.5665200750353</v>
+        <v>531.7507889470724</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1232.150970528558</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,13 +4799,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796416</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535336</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559525</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4872,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
@@ -4887,16 +4887,16 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>645.3078929297411</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="C10" t="n">
-        <v>476.3717100018342</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>326.2550705894985</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>178.3419770071054</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>585.3344285704424</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297411</v>
+        <v>364.5418494269122</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>810.0653816078141</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>491.0125592675714</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2273.672861378249</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1984.597634722449</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1729.913146516562</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1440.495976479601</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1212.506425581584</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>991.7138464380538</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,19 +5270,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5297,16 +5297,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1028.490320362746</v>
+        <v>513.8536007400675</v>
       </c>
       <c r="C16" t="n">
-        <v>859.5541374348388</v>
+        <v>344.9174178121606</v>
       </c>
       <c r="D16" t="n">
-        <v>709.4374980225031</v>
+        <v>344.9174178121606</v>
       </c>
       <c r="E16" t="n">
-        <v>561.5244044401099</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>414.6344569421996</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>247.4383576570795</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>105.7265264992776</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1430.931364336515</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1210.138785192985</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5495,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5504,37 +5504,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>719.5738700011939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>550.637687073287</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2403.989184263546</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2221.13434991845</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2001.532884941391</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1712.457658285589</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1457.773170079702</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1168.356000042741</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>940.366449144724</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>719.5738700011939</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5747,28 +5747,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969308</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>2238.914344045922</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1949.83911739012</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1695.154629184233</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1405.737459147272</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>1177.747908249255</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y22" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="23">
@@ -5978,52 +5978,52 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852888</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6215,22 +6215,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6239,13 +6239,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1132.402531511373</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6464,13 +6464,13 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6479,10 +6479,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398594</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>2222.001901828445</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797189</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,61 +6686,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6880,28 +6880,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6923,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.793114229131</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468418</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7160,61 +7160,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7354,28 +7354,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7406,25 +7406,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7728,10 +7728,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>580.8993044876688</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>430.7826650753331</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>282.8695714929399</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8058,19 +8058,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>231.2582814363238</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>265.0304328515146</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878351</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>265.0304328515144</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>-4.500118268918471e-13</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>39.34043764846511</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>11.01993928732604</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>123.7723580384621</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922732</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788572</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>45.8481303472968</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>43.26526345295358</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>69.47507150177285</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462252</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>23.83108638657451</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>24.63391537253577</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>11.43719818829277</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228704</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>213.946807929556</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,16 +25081,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>43.26526345294944</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459264</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.5498640939303</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>986083.5160798281</v>
+        <v>986083.5160798284</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1057219.851142169</v>
+        <v>1057219.851142168</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1057219.851142169</v>
+        <v>1057219.851142168</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1057219.851142169</v>
+        <v>1057219.851142168</v>
       </c>
     </row>
     <row r="13">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335917.986501903</v>
+        <v>335917.9865019029</v>
       </c>
       <c r="C2" t="n">
         <v>369468.7964389272</v>
@@ -26320,34 +26320,34 @@
         <v>369468.7964389276</v>
       </c>
       <c r="E2" t="n">
+        <v>363215.9698605025</v>
+      </c>
+      <c r="F2" t="n">
         <v>363215.9698605026</v>
-      </c>
-      <c r="F2" t="n">
-        <v>363215.9698605028</v>
       </c>
       <c r="G2" t="n">
         <v>363215.9698605028</v>
       </c>
       <c r="H2" t="n">
-        <v>363215.9698605027</v>
+        <v>363215.9698605028</v>
       </c>
       <c r="I2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605025</v>
       </c>
       <c r="J2" t="n">
         <v>363215.9698605026</v>
       </c>
       <c r="K2" t="n">
+        <v>363215.9698605025</v>
+      </c>
+      <c r="L2" t="n">
+        <v>363215.9698605028</v>
+      </c>
+      <c r="M2" t="n">
+        <v>363215.9698605028</v>
+      </c>
+      <c r="N2" t="n">
         <v>363215.9698605026</v>
-      </c>
-      <c r="L2" t="n">
-        <v>363215.9698605026</v>
-      </c>
-      <c r="M2" t="n">
-        <v>363215.9698605029</v>
-      </c>
-      <c r="N2" t="n">
-        <v>363215.9698605029</v>
       </c>
       <c r="O2" t="n">
         <v>363215.9698605026</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099827</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>48293.97000819068</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92967.2532643179</v>
+        <v>92967.25326431799</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769832</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309562</v>
+        <v>87914.29116309559</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="G4" t="n">
+        <v>8727.256391744246</v>
+      </c>
+      <c r="H4" t="n">
         <v>8727.256391744284</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>8727.256391744242</v>
+      </c>
+      <c r="J4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
+        <v>8727.256391744246</v>
+      </c>
+      <c r="L4" t="n">
         <v>8727.256391744284</v>
       </c>
-      <c r="J4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8727.256391744235</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8727.256391744264</v>
-      </c>
       <c r="M4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744257</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.77243984472</v>
+      </c>
+      <c r="C5" t="n">
         <v>92937.7724398447</v>
-      </c>
-      <c r="C5" t="n">
-        <v>92937.77243984469</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-964738.822778179</v>
+        <v>-964925.2161667186</v>
       </c>
       <c r="C6" t="n">
-        <v>141008.8870220994</v>
+        <v>141008.8870220996</v>
       </c>
       <c r="D6" t="n">
-        <v>-19006.57572589931</v>
+        <v>-19006.57572589927</v>
       </c>
       <c r="E6" t="n">
-        <v>-72046.27816250423</v>
+        <v>-72081.01608793966</v>
       </c>
       <c r="F6" t="n">
-        <v>253366.1836448513</v>
+        <v>253331.4457194155</v>
       </c>
       <c r="G6" t="n">
-        <v>253366.1836448516</v>
+        <v>253331.4457194155</v>
       </c>
       <c r="H6" t="n">
-        <v>253366.1836448513</v>
+        <v>253331.4457194157</v>
       </c>
       <c r="I6" t="n">
-        <v>253366.1836448511</v>
+        <v>253331.4457194154</v>
       </c>
       <c r="J6" t="n">
-        <v>85761.00583486854</v>
+        <v>85726.26790943302</v>
       </c>
       <c r="K6" t="n">
-        <v>253366.1836448512</v>
+        <v>253331.4457194154</v>
       </c>
       <c r="L6" t="n">
-        <v>205072.2136366605</v>
+        <v>205037.475711225</v>
       </c>
       <c r="M6" t="n">
-        <v>168311.1557093397</v>
+        <v>168276.4177839039</v>
       </c>
       <c r="N6" t="n">
-        <v>253366.1836448514</v>
+        <v>253331.4457194156</v>
       </c>
       <c r="O6" t="n">
-        <v>253366.1836448513</v>
+        <v>253331.4457194154</v>
       </c>
       <c r="P6" t="n">
-        <v>253366.1836448512</v>
+        <v>253331.4457194157</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
         <v>640.5848321000387</v>
       </c>
-      <c r="C4" t="n">
-        <v>640.5848321000385</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26808,7 +26808,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26817,13 +26817,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>181.995376932067</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>78.68031877585733</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,10 +27552,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>75.59979571854171</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>86.81590547846457</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>90.27733718705446</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>75.52180882006203</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>211.3169967867956</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>103.3587393628239</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>261.1562795319079</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>34.70948605375852</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>220.2917442098577</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-4.336205468765305e-12</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-3.770613451100265e-12</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29098,7 +29098,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>-2.556569233283702e-13</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-8.682195192673604e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>671.9287955253226</v>
       </c>
       <c r="N12" t="n">
-        <v>639.8517673857158</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>438.5310889592611</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391492</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>277.4567226539314</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>284.1014732918236</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>151.9914336104071</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33260,10 +33260,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>289.7537444526271</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L32" t="n">
         <v>867.8464071162563</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>632.587927456874</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33737,10 +33737,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>279.0775374915851</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33901,7 +33901,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159428</v>
@@ -33971,7 +33971,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422586</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>485.1127032082907</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>231.5286848890169</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34448,13 +34448,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>393.3904345522228</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>528.938642074174</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>600.4551148476376</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313199</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>562.7107934893645</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820404</v>
@@ -35033,7 +35033,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>529.7947616033043</v>
       </c>
       <c r="N12" t="n">
-        <v>508.5100553023825</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>138.9023428740572</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010435</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>20.64972152707382</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>151.9123054782681</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L32" t="n">
         <v>632.079992146269</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>490.4538935348556</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>136.4812930471406</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193518</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,22 +37862,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>92.97430510914269</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
